--- a/biology/Zoologie/Hyalophora_cecropia/Hyalophora_cecropia.xlsx
+++ b/biology/Zoologie/Hyalophora_cecropia/Hyalophora_cecropia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyalophora cecropia est une espèce de lépidoptères appartenant à la famille des Saturniidae, le plus grand papillon d'Amérique du Nord. Le saturnie cécropia fréquente les milieux boisés et ouverts. On peut également le retrouver dans les milieux urbains où il y a présence d’arbres et d’arbustes. Il s'agit d'une espèce nocturne. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la mythologie grecque, Cécrops (en grec ancien Κέκρωψ / Kékrôps), fils d'Érechthée et de Praxithée, a été le fondateur d'Athènes dont la citadelle fut nommée de son nom « cecropia », ce qui signifie « de Cecrops »[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, Cécrops (en grec ancien Κέκρωψ / Kékrôps), fils d'Érechthée et de Praxithée, a été le fondateur d'Athènes dont la citadelle fut nommée de son nom « cecropia », ce qui signifie « de Cecrops ».  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, ce papillon est présent dans toutes les provinces à l'exception de la Colombie-Britannique et de Terre-Neuve-et-Labrador[2]. Aux États-Unis, Il est présent dans tous les États du centre jusqu'à la côte est[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, ce papillon est présent dans toutes les provinces à l'exception de la Colombie-Britannique et de Terre-Neuve-et-Labrador. Aux États-Unis, Il est présent dans tous les États du centre jusqu'à la côte est.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le saturnie cécropia peut atteindre 15,2 centimètres d'envergure. Il a un large corps poilu de couleur rouge avec de petits motifs noirs et blancs sur les côtés. Les mâles ont de larges antennes plumeuses contrairement aux femelles. Les ailes sont de couleur brune et possèdent de larges taches blanches en demi-lune. On retrouve également une bande rouge parallèle à la marge de l'aile[4]. 
-À son cinquième et dernier stade de développement, la chenille est verte et possède des protubérances dorsales jaunes et bleues ornées de petites épines noires. À ce stade, elle mesure entre huit et dix centimètres[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saturnie cécropia peut atteindre 15,2 centimètres d'envergure. Il a un large corps poilu de couleur rouge avec de petits motifs noirs et blancs sur les côtés. Les mâles ont de larges antennes plumeuses contrairement aux femelles. Les ailes sont de couleur brune et possèdent de larges taches blanches en demi-lune. On retrouve également une bande rouge parallèle à la marge de l'aile. 
+À son cinquième et dernier stade de développement, la chenille est verte et possède des protubérances dorsales jaunes et bleues ornées de petites épines noires. À ce stade, elle mesure entre huit et dix centimètres.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada et au nord des États-Unis, le saturnie cécropia est univoltin. Dans certaines régions du sud, il peut y avoir deux générations par année[6]. Les adultes sont nocturnes et sont attirés par la lumière. Pour se reproduire, la femelle émet des phéromones sexuelles dès son émergence. Les mâles peuvent capter ces molécules à de grandes distances à l'aide de leurs antennes larges et plumeuses[1].  
-La larve passera par cinq stades de développement avant d'entamer sa chrysalide. À l'éclosion, la chenille est noire et mesure environ cinq millimètres. Au deuxième stade larvaire, la chenille est jaune avec de légères touches de noir. À partir du troisième stade larvaire, la chenille est verte et possède des protubérances dorsales ornées de petites épines noires. Les protubérances au centre de la face dorsale sont jaunes tandis que les secondaires sont bleu pâle. La chenille du saturnide du mélèze (Hyalophora columbia) est relativement semblable à celle du cécropia[4]. La chenille atteint sa taille maximale après environ huit semaines. À ce stade, elle mesure entre huit et dix centimètres.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada et au nord des États-Unis, le saturnie cécropia est univoltin. Dans certaines régions du sud, il peut y avoir deux générations par année. Les adultes sont nocturnes et sont attirés par la lumière. Pour se reproduire, la femelle émet des phéromones sexuelles dès son émergence. Les mâles peuvent capter ces molécules à de grandes distances à l'aide de leurs antennes larges et plumeuses.  
+La larve passera par cinq stades de développement avant d'entamer sa chrysalide. À l'éclosion, la chenille est noire et mesure environ cinq millimètres. Au deuxième stade larvaire, la chenille est jaune avec de légères touches de noir. À partir du troisième stade larvaire, la chenille est verte et possède des protubérances dorsales ornées de petites épines noires. Les protubérances au centre de la face dorsale sont jaunes tandis que les secondaires sont bleu pâle. La chenille du saturnide du mélèze (Hyalophora columbia) est relativement semblable à celle du cécropia. La chenille atteint sa taille maximale après environ huit semaines. À ce stade, elle mesure entre huit et dix centimètres.
 Cycle de vie du cécropia (Hyalophora cecropia)
 			œufs
 			Cinquième stade larvaire
@@ -641,9 +661,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte ne se nourrit pas et ne vit que quelques jours à une semaine[1]. La chenille est polyphage et se nourrit de plusieurs types d'arbres et de plantes (érable, frêne, bouleau, peuplier, etc.)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte ne se nourrit pas et ne vit que quelques jours à une semaine. La chenille est polyphage et se nourrit de plusieurs types d'arbres et de plantes (érable, frêne, bouleau, peuplier, etc.).
 </t>
         </is>
       </c>
@@ -672,9 +694,11 @@
           <t>Liste des plantes hôtes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Handfield (1999)[1] et Heppner (2003)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Handfield (1999) et Heppner (2003) :
 Aceraceae - genre Acer
 Adoxaceae - genre Virburnum
 Betulaceae - genre Alnus, Betula, Corylus et Ostrya
